--- a/www/ig/nos/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="2743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="2749">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.35</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.35</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-30T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2717,6 +2717,24 @@
   </si>
   <si>
     <t>IFMK du CHI de Meulan - Les Mureaux</t>
+  </si>
+  <si>
+    <t>UK67</t>
+  </si>
+  <si>
+    <t>IFMK de Meaux</t>
+  </si>
+  <si>
+    <t>UK68</t>
+  </si>
+  <si>
+    <t>IUK de Fontainebleau</t>
+  </si>
+  <si>
+    <t>UK69</t>
+  </si>
+  <si>
+    <t>IFMKN de Nevers</t>
   </si>
   <si>
     <t>UP5</t>
@@ -8610,7 +8628,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1350"/>
+  <dimension ref="A1:D1353"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17986,7 +18004,7 @@
         <v>1605</v>
       </c>
       <c r="C781" t="s" s="2">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="D781" s="2"/>
     </row>
@@ -17995,10 +18013,10 @@
         <v>46</v>
       </c>
       <c r="B782" t="s" s="2">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C782" t="s" s="2">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D782" s="2"/>
     </row>
@@ -18007,10 +18025,10 @@
         <v>46</v>
       </c>
       <c r="B783" t="s" s="2">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="C783" t="s" s="2">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="D783" s="2"/>
     </row>
@@ -18019,10 +18037,10 @@
         <v>46</v>
       </c>
       <c r="B784" t="s" s="2">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="C784" t="s" s="2">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="D784" s="2"/>
     </row>
@@ -24226,7 +24244,7 @@
         <v>2644</v>
       </c>
       <c r="C1301" t="s" s="2">
-        <v>1548</v>
+        <v>2645</v>
       </c>
       <c r="D1301" s="2"/>
     </row>
@@ -24235,10 +24253,10 @@
         <v>46</v>
       </c>
       <c r="B1302" t="s" s="2">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C1302" t="s" s="2">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="D1302" s="2"/>
     </row>
@@ -24247,10 +24265,10 @@
         <v>46</v>
       </c>
       <c r="B1303" t="s" s="2">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="C1303" t="s" s="2">
-        <v>2648</v>
+        <v>2649</v>
       </c>
       <c r="D1303" s="2"/>
     </row>
@@ -24259,10 +24277,10 @@
         <v>46</v>
       </c>
       <c r="B1304" t="s" s="2">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="C1304" t="s" s="2">
-        <v>2650</v>
+        <v>1554</v>
       </c>
       <c r="D1304" s="2"/>
     </row>
@@ -24817,6 +24835,42 @@
         <v>2742</v>
       </c>
       <c r="D1350" s="2"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1351" t="s" s="2">
+        <v>2743</v>
+      </c>
+      <c r="C1351" t="s" s="2">
+        <v>2744</v>
+      </c>
+      <c r="D1351" s="2"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1352" t="s" s="2">
+        <v>2745</v>
+      </c>
+      <c r="C1352" t="s" s="2">
+        <v>2746</v>
+      </c>
+      <c r="D1352" s="2"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1353" t="s" s="2">
+        <v>2747</v>
+      </c>
+      <c r="C1353" t="s" s="2">
+        <v>2748</v>
+      </c>
+      <c r="D1353" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/ig/nos/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
